--- a/imgsolver/model_trainer/model_metric_logs/operator_class_v42024-10-30.model.keras_metrics.xlsx
+++ b/imgsolver/model_trainer/model_metric_logs/operator_class_v42024-10-30.model.keras_metrics.xlsx
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1500108689069748</v>
+        <v>0.1781484335660934</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9413777589797974</v>
+        <v>0.9330000281333923</v>
       </c>
     </row>
   </sheetData>
@@ -510,16 +510,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9993324432576769</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9986657771847899</v>
+        <v>0.9984977466199298</v>
       </c>
       <c r="E2" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -529,16 +529,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8803622497616778</v>
+        <v>0.8272816486751717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8208888888888889</v>
+        <v>0.843</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8495860165593376</v>
+        <v>0.8350668647845468</v>
       </c>
       <c r="E3" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -548,16 +548,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9957852706299911</v>
+        <v>0.9930417495029821</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9975555555555555</v>
+        <v>0.999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9966696269982238</v>
+        <v>0.996011964107677</v>
       </c>
       <c r="E4" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -567,16 +567,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8349656178370494</v>
+        <v>0.8454452405322416</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8904444444444445</v>
+        <v>0.826</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8618130981826003</v>
+        <v>0.8356095093576126</v>
       </c>
       <c r="E5" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9993337774816788</v>
+        <v>0.999000999000999</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9996667777407531</v>
+        <v>0.9995002498750625</v>
       </c>
       <c r="E6" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -605,16 +605,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9413777777777778</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9413777777777778</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9413777777777778</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9413777777777778</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -624,16 +624,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9419558717936148</v>
+        <v>0.9329539275422789</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9413777777777778</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.941280259333141</v>
+        <v>0.9329372669489657</v>
       </c>
       <c r="E8" t="n">
-        <v>22500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9">
@@ -643,16 +643,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9419558717936148</v>
+        <v>0.9329539275422789</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9413777777777778</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9412802593331409</v>
+        <v>0.9329372669489657</v>
       </c>
       <c r="E9" t="n">
-        <v>22500</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -708,19 +708,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4491</v>
+        <v>997</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3694</v>
+        <v>843</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>790</v>
+        <v>151</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -752,19 +752,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4489</v>
+        <v>999</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>493</v>
+        <v>174</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4007</v>
+        <v>826</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
